--- a/Team-Data/2014-15/1-6-2014-15.xlsx
+++ b/Team-Data/2014-15/1-6-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>5</v>
       </c>
       <c r="AD2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE2" t="n">
         <v>3</v>
@@ -756,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI2" t="n">
         <v>15</v>
@@ -765,7 +832,7 @@
         <v>26</v>
       </c>
       <c r="AK2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL2" t="n">
         <v>7</v>
@@ -792,7 +859,7 @@
         <v>12</v>
       </c>
       <c r="AT2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU2" t="n">
         <v>3</v>
@@ -804,7 +871,7 @@
         <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY2" t="n">
         <v>15</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-6-2014-15</t>
+          <t>2015-01-06</t>
         </is>
       </c>
     </row>
@@ -965,7 +1032,7 @@
         <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR3" t="n">
         <v>20</v>
@@ -974,7 +1041,7 @@
         <v>9</v>
       </c>
       <c r="AT3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU3" t="n">
         <v>2</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-6-2014-15</t>
+          <t>2015-01-06</t>
         </is>
       </c>
     </row>
@@ -1108,13 +1175,13 @@
         <v>-1.9</v>
       </c>
       <c r="AD4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE4" t="n">
         <v>17</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AF4" t="n">
         <v>16</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>15</v>
       </c>
       <c r="AG4" t="n">
         <v>17</v>
@@ -1123,7 +1190,7 @@
         <v>4</v>
       </c>
       <c r="AI4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ4" t="n">
         <v>24</v>
@@ -1132,7 +1199,7 @@
         <v>20</v>
       </c>
       <c r="AL4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM4" t="n">
         <v>16</v>
@@ -1144,7 +1211,7 @@
         <v>23</v>
       </c>
       <c r="AP4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ4" t="n">
         <v>18</v>
@@ -1159,10 +1226,10 @@
         <v>19</v>
       </c>
       <c r="AU4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW4" t="n">
         <v>20</v>
@@ -1174,7 +1241,7 @@
         <v>14</v>
       </c>
       <c r="AZ4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA4" t="n">
         <v>20</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-6-2014-15</t>
+          <t>2015-01-06</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1363,7 @@
         <v>23</v>
       </c>
       <c r="AF5" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AG5" t="n">
         <v>25</v>
@@ -1308,7 +1375,7 @@
         <v>24</v>
       </c>
       <c r="AJ5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK5" t="n">
         <v>28</v>
@@ -1323,10 +1390,10 @@
         <v>29</v>
       </c>
       <c r="AO5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP5" t="n">
         <v>18</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>19</v>
       </c>
       <c r="AQ5" t="n">
         <v>20</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-6-2014-15</t>
+          <t>2015-01-06</t>
         </is>
       </c>
     </row>
@@ -1478,7 +1545,7 @@
         <v>5</v>
       </c>
       <c r="AF6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG6" t="n">
         <v>6</v>
@@ -1517,7 +1584,7 @@
         <v>6</v>
       </c>
       <c r="AS6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT6" t="n">
         <v>3</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-6-2014-15</t>
+          <t>2015-01-06</t>
         </is>
       </c>
     </row>
@@ -1678,22 +1745,22 @@
         <v>17</v>
       </c>
       <c r="AL7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM7" t="n">
         <v>12</v>
       </c>
       <c r="AN7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO7" t="n">
         <v>4</v>
       </c>
       <c r="AP7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR7" t="n">
         <v>16</v>
@@ -1702,13 +1769,13 @@
         <v>26</v>
       </c>
       <c r="AT7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU7" t="n">
         <v>11</v>
       </c>
       <c r="AV7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW7" t="n">
         <v>21</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-6-2014-15</t>
+          <t>2015-01-06</t>
         </is>
       </c>
     </row>
@@ -1758,25 +1825,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" t="n">
         <v>26</v>
       </c>
       <c r="F8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>0.743</v>
+        <v>0.722</v>
       </c>
       <c r="H8" t="n">
         <v>48.6</v>
       </c>
       <c r="I8" t="n">
-        <v>41.3</v>
+        <v>41.2</v>
       </c>
       <c r="J8" t="n">
-        <v>86.5</v>
+        <v>86.3</v>
       </c>
       <c r="K8" t="n">
         <v>0.477</v>
@@ -1785,7 +1852,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="M8" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="N8" t="n">
         <v>0.362</v>
@@ -1794,28 +1861,28 @@
         <v>17.5</v>
       </c>
       <c r="P8" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.762</v>
+        <v>0.764</v>
       </c>
       <c r="R8" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S8" t="n">
-        <v>31.5</v>
+        <v>31.3</v>
       </c>
       <c r="T8" t="n">
-        <v>42.5</v>
+        <v>42.2</v>
       </c>
       <c r="U8" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="V8" t="n">
         <v>12.2</v>
       </c>
       <c r="W8" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X8" t="n">
         <v>5.1</v>
@@ -1827,28 +1894,28 @@
         <v>20.3</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="AB8" t="n">
-        <v>109.7</v>
+        <v>109.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
         <v>3</v>
       </c>
       <c r="AF8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI8" t="n">
         <v>1</v>
@@ -1866,19 +1933,19 @@
         <v>4</v>
       </c>
       <c r="AN8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP8" t="n">
         <v>16</v>
       </c>
       <c r="AQ8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS8" t="n">
         <v>21</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-6-2014-15</t>
+          <t>2015-01-06</t>
         </is>
       </c>
     </row>
@@ -2030,7 +2097,7 @@
         <v>18</v>
       </c>
       <c r="AH9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI9" t="n">
         <v>13</v>
@@ -2072,7 +2139,7 @@
         <v>18</v>
       </c>
       <c r="AV9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW9" t="n">
         <v>23</v>
@@ -2090,7 +2157,7 @@
         <v>10</v>
       </c>
       <c r="BB9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC9" t="n">
         <v>19</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-6-2014-15</t>
+          <t>2015-01-06</t>
         </is>
       </c>
     </row>
@@ -2122,100 +2189,100 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" t="n">
         <v>23</v>
       </c>
       <c r="G10" t="n">
-        <v>0.324</v>
+        <v>0.303</v>
       </c>
       <c r="H10" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I10" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J10" t="n">
         <v>85.5</v>
       </c>
       <c r="K10" t="n">
-        <v>0.426</v>
+        <v>0.425</v>
       </c>
       <c r="L10" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="M10" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="N10" t="n">
-        <v>0.344</v>
+        <v>0.349</v>
       </c>
       <c r="O10" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="P10" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.677</v>
+        <v>0.676</v>
       </c>
       <c r="R10" t="n">
         <v>12.6</v>
       </c>
       <c r="S10" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="T10" t="n">
         <v>45.4</v>
       </c>
       <c r="U10" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="V10" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="W10" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X10" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y10" t="n">
         <v>5</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.2</v>
+        <v>19.9</v>
       </c>
       <c r="AA10" t="n">
         <v>20</v>
       </c>
       <c r="AB10" t="n">
-        <v>96.8</v>
+        <v>96.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.8</v>
+        <v>-2.9</v>
       </c>
       <c r="AD10" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AE10" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AF10" t="n">
         <v>23</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH10" t="n">
         <v>14</v>
       </c>
       <c r="AI10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ10" t="n">
         <v>8</v>
@@ -2230,10 +2297,10 @@
         <v>9</v>
       </c>
       <c r="AN10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP10" t="n">
         <v>17</v>
@@ -2254,10 +2321,10 @@
         <v>22</v>
       </c>
       <c r="AV10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX10" t="n">
         <v>18</v>
@@ -2266,7 +2333,7 @@
         <v>16</v>
       </c>
       <c r="AZ10" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA10" t="n">
         <v>23</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-6-2014-15</t>
+          <t>2015-01-06</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2485,7 @@
         <v>20</v>
       </c>
       <c r="AP11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ11" t="n">
         <v>7</v>
@@ -2448,10 +2515,10 @@
         <v>5</v>
       </c>
       <c r="AZ11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB11" t="n">
         <v>2</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-6-2014-15</t>
+          <t>2015-01-06</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
       </c>
       <c r="G12" t="n">
-        <v>0.667</v>
+        <v>0.676</v>
       </c>
       <c r="H12" t="n">
         <v>48.6</v>
       </c>
       <c r="I12" t="n">
-        <v>36.1</v>
+        <v>35.9</v>
       </c>
       <c r="J12" t="n">
-        <v>83.59999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="K12" t="n">
         <v>0.432</v>
@@ -2513,19 +2580,19 @@
         <v>11.6</v>
       </c>
       <c r="M12" t="n">
-        <v>33.9</v>
+        <v>33.7</v>
       </c>
       <c r="N12" t="n">
-        <v>0.343</v>
+        <v>0.344</v>
       </c>
       <c r="O12" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="P12" t="n">
-        <v>24.1</v>
+        <v>24.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.707</v>
+        <v>0.705</v>
       </c>
       <c r="R12" t="n">
         <v>12.5</v>
@@ -2537,43 +2604,43 @@
         <v>44.2</v>
       </c>
       <c r="U12" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V12" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="W12" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="X12" t="n">
         <v>4.8</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z12" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="AB12" t="n">
-        <v>100.8</v>
+        <v>101</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AE12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF12" t="n">
         <v>8</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH12" t="n">
         <v>9</v>
@@ -2594,13 +2661,13 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO12" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AP12" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
@@ -2624,16 +2691,16 @@
         <v>2</v>
       </c>
       <c r="AX12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BB12" t="n">
         <v>16</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-6-2014-15</t>
+          <t>2015-01-06</t>
         </is>
       </c>
     </row>
@@ -2770,16 +2837,16 @@
         <v>27</v>
       </c>
       <c r="AL13" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AM13" t="n">
         <v>20</v>
       </c>
       <c r="AN13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP13" t="n">
         <v>26</v>
@@ -2797,7 +2864,7 @@
         <v>7</v>
       </c>
       <c r="AU13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV13" t="n">
         <v>11</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-6-2014-15</t>
+          <t>2015-01-06</t>
         </is>
       </c>
     </row>
@@ -2946,7 +3013,7 @@
         <v>10</v>
       </c>
       <c r="AJ14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK14" t="n">
         <v>3</v>
@@ -2964,13 +3031,13 @@
         <v>4</v>
       </c>
       <c r="AP14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ14" t="n">
         <v>16</v>
       </c>
       <c r="AR14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS14" t="n">
         <v>14</v>
@@ -2982,7 +3049,7 @@
         <v>5</v>
       </c>
       <c r="AV14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW14" t="n">
         <v>13</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-6-2014-15</t>
+          <t>2015-01-06</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E15" t="n">
         <v>11</v>
       </c>
       <c r="F15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G15" t="n">
-        <v>0.324</v>
+        <v>0.314</v>
       </c>
       <c r="H15" t="n">
         <v>48.4</v>
       </c>
       <c r="I15" t="n">
-        <v>38.3</v>
+        <v>38</v>
       </c>
       <c r="J15" t="n">
-        <v>86.7</v>
+        <v>86.5</v>
       </c>
       <c r="K15" t="n">
-        <v>0.441</v>
+        <v>0.439</v>
       </c>
       <c r="L15" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M15" t="n">
-        <v>20</v>
+        <v>19.7</v>
       </c>
       <c r="N15" t="n">
-        <v>0.362</v>
+        <v>0.361</v>
       </c>
       <c r="O15" t="n">
-        <v>18.6</v>
+        <v>18.9</v>
       </c>
       <c r="P15" t="n">
-        <v>24.8</v>
+        <v>25.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.749</v>
+        <v>0.751</v>
       </c>
       <c r="R15" t="n">
         <v>11.6</v>
       </c>
       <c r="S15" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="T15" t="n">
-        <v>42.7</v>
+        <v>42.5</v>
       </c>
       <c r="U15" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="V15" t="n">
         <v>12.4</v>
@@ -3092,37 +3159,37 @@
         <v>7.6</v>
       </c>
       <c r="X15" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.6</v>
+        <v>21.9</v>
       </c>
       <c r="AA15" t="n">
-        <v>20.4</v>
+        <v>20.7</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.4</v>
+        <v>102</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.7</v>
+        <v>-6.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
         <v>25</v>
       </c>
       <c r="AF15" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG15" t="n">
         <v>26</v>
       </c>
       <c r="AH15" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AI15" t="n">
         <v>12</v>
@@ -3131,58 +3198,58 @@
         <v>4</v>
       </c>
       <c r="AK15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AM15" t="n">
         <v>22</v>
       </c>
       <c r="AN15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AQ15" t="n">
         <v>17</v>
       </c>
       <c r="AR15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT15" t="n">
         <v>15</v>
       </c>
       <c r="AU15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AV15" t="n">
         <v>4</v>
       </c>
       <c r="AW15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY15" t="n">
         <v>7</v>
       </c>
       <c r="AZ15" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BA15" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="BB15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-6-2014-15</t>
+          <t>2015-01-06</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>4.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE16" t="n">
         <v>5</v>
@@ -3301,13 +3368,13 @@
         <v>4</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH16" t="n">
         <v>2</v>
       </c>
       <c r="AI16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ16" t="n">
         <v>15</v>
@@ -3322,7 +3389,7 @@
         <v>27</v>
       </c>
       <c r="AN16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO16" t="n">
         <v>9</v>
@@ -3343,7 +3410,7 @@
         <v>19</v>
       </c>
       <c r="AU16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV16" t="n">
         <v>5</v>
@@ -3355,13 +3422,13 @@
         <v>23</v>
       </c>
       <c r="AY16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ16" t="n">
         <v>7</v>
       </c>
       <c r="BA16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB16" t="n">
         <v>14</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-6-2014-15</t>
+          <t>2015-01-06</t>
         </is>
       </c>
     </row>
@@ -3495,7 +3562,7 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL17" t="n">
         <v>14</v>
@@ -3504,13 +3571,13 @@
         <v>17</v>
       </c>
       <c r="AN17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO17" t="n">
         <v>12</v>
       </c>
       <c r="AP17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ17" t="n">
         <v>25</v>
@@ -3528,13 +3595,13 @@
         <v>29</v>
       </c>
       <c r="AV17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW17" t="n">
         <v>7</v>
       </c>
       <c r="AX17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AY17" t="n">
         <v>8</v>
@@ -3543,10 +3610,10 @@
         <v>14</v>
       </c>
       <c r="BA17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC17" t="n">
         <v>24</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-6-2014-15</t>
+          <t>2015-01-06</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" t="n">
         <v>18</v>
       </c>
       <c r="F18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5</v>
+        <v>0.514</v>
       </c>
       <c r="H18" t="n">
         <v>48.7</v>
@@ -3596,28 +3663,28 @@
         <v>37.7</v>
       </c>
       <c r="J18" t="n">
-        <v>81.8</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L18" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M18" t="n">
         <v>19.4</v>
       </c>
       <c r="N18" t="n">
-        <v>0.353</v>
+        <v>0.359</v>
       </c>
       <c r="O18" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="P18" t="n">
         <v>21.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.779</v>
+        <v>0.777</v>
       </c>
       <c r="R18" t="n">
         <v>10.3</v>
@@ -3626,10 +3693,10 @@
         <v>30.9</v>
       </c>
       <c r="T18" t="n">
-        <v>41.2</v>
+        <v>41.1</v>
       </c>
       <c r="U18" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="V18" t="n">
         <v>16.9</v>
@@ -3644,55 +3711,55 @@
         <v>4.8</v>
       </c>
       <c r="Z18" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AD18" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE18" t="n">
         <v>14</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG18" t="n">
         <v>14</v>
       </c>
       <c r="AH18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI18" t="n">
         <v>14</v>
       </c>
       <c r="AJ18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL18" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AM18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO18" t="n">
         <v>22</v>
       </c>
       <c r="AP18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ18" t="n">
         <v>6</v>
@@ -3701,13 +3768,13 @@
         <v>22</v>
       </c>
       <c r="AS18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT18" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AU18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV18" t="n">
         <v>28</v>
@@ -3731,7 +3798,7 @@
         <v>20</v>
       </c>
       <c r="BC18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-6-2014-15</t>
+          <t>2015-01-06</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-10.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE19" t="n">
         <v>28</v>
@@ -3868,7 +3935,7 @@
         <v>30</v>
       </c>
       <c r="AN19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO19" t="n">
         <v>6</v>
@@ -3877,10 +3944,10 @@
         <v>3</v>
       </c>
       <c r="AQ19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS19" t="n">
         <v>29</v>
@@ -3892,7 +3959,7 @@
         <v>12</v>
       </c>
       <c r="AV19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW19" t="n">
         <v>4</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-6-2014-15</t>
+          <t>2015-01-06</t>
         </is>
       </c>
     </row>
@@ -3942,160 +4009,160 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F20" t="n">
         <v>17</v>
       </c>
       <c r="G20" t="n">
-        <v>0.485</v>
+        <v>0.5</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="J20" t="n">
-        <v>84.5</v>
+        <v>85</v>
       </c>
       <c r="K20" t="n">
-        <v>0.46</v>
+        <v>0.458</v>
       </c>
       <c r="L20" t="n">
         <v>6.6</v>
       </c>
       <c r="M20" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N20" t="n">
-        <v>0.341</v>
+        <v>0.338</v>
       </c>
       <c r="O20" t="n">
         <v>16.9</v>
       </c>
       <c r="P20" t="n">
-        <v>22.1</v>
+        <v>22.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.766</v>
+        <v>0.754</v>
       </c>
       <c r="R20" t="n">
-        <v>11.3</v>
+        <v>11.7</v>
       </c>
       <c r="S20" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T20" t="n">
-        <v>42.8</v>
+        <v>43.4</v>
       </c>
       <c r="U20" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V20" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="W20" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X20" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z20" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB20" t="n">
         <v>101.4</v>
       </c>
       <c r="AC20" t="n">
-        <v>-0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AE20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF20" t="n">
         <v>14</v>
       </c>
       <c r="AG20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH20" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AI20" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AJ20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
         <v>25</v>
       </c>
       <c r="AM20" t="n">
+        <v>24</v>
+      </c>
+      <c r="AN20" t="n">
         <v>23</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>21</v>
       </c>
       <c r="AO20" t="n">
         <v>19</v>
       </c>
       <c r="AP20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AT20" t="n">
         <v>11</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>20</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>12</v>
       </c>
       <c r="AU20" t="n">
         <v>14</v>
       </c>
       <c r="AV20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX20" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AY20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ20" t="n">
         <v>6</v>
       </c>
       <c r="BA20" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BB20" t="n">
         <v>15</v>
       </c>
       <c r="BC20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-6-2014-15</t>
+          <t>2015-01-06</t>
         </is>
       </c>
     </row>
@@ -4220,7 +4287,7 @@
         <v>26</v>
       </c>
       <c r="AJ21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK21" t="n">
         <v>21</v>
@@ -4271,7 +4338,7 @@
         <v>24</v>
       </c>
       <c r="BA21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-6-2014-15</t>
+          <t>2015-01-06</t>
         </is>
       </c>
     </row>
@@ -4390,13 +4457,13 @@
         <v>15</v>
       </c>
       <c r="AF22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI22" t="n">
         <v>18</v>
@@ -4405,10 +4472,10 @@
         <v>14</v>
       </c>
       <c r="AK22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL22" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AM22" t="n">
         <v>14</v>
@@ -4420,7 +4487,7 @@
         <v>10</v>
       </c>
       <c r="AP22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ22" t="n">
         <v>21</v>
@@ -4444,16 +4511,16 @@
         <v>24</v>
       </c>
       <c r="AX22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY22" t="n">
         <v>12</v>
       </c>
       <c r="AZ22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB22" t="n">
         <v>19</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-6-2014-15</t>
+          <t>2015-01-06</t>
         </is>
       </c>
     </row>
@@ -4488,91 +4555,91 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
       </c>
       <c r="F23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G23" t="n">
-        <v>0.361</v>
+        <v>0.351</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="J23" t="n">
-        <v>80.59999999999999</v>
+        <v>80.7</v>
       </c>
       <c r="K23" t="n">
-        <v>0.456</v>
+        <v>0.454</v>
       </c>
       <c r="L23" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M23" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="N23" t="n">
         <v>0.374</v>
       </c>
       <c r="O23" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="P23" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.724</v>
+        <v>0.725</v>
       </c>
       <c r="R23" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S23" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="T23" t="n">
-        <v>40.4</v>
+        <v>40.8</v>
       </c>
       <c r="U23" t="n">
         <v>19.9</v>
       </c>
       <c r="V23" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W23" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X23" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.2</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.1</v>
+        <v>-5.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>22</v>
       </c>
       <c r="AF23" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG23" t="n">
         <v>22</v>
@@ -4590,13 +4657,13 @@
         <v>15</v>
       </c>
       <c r="AL23" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AM23" t="n">
         <v>26</v>
       </c>
       <c r="AN23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO23" t="n">
         <v>30</v>
@@ -4605,10 +4672,10 @@
         <v>29</v>
       </c>
       <c r="AQ23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR23" t="n">
         <v>27</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>28</v>
       </c>
       <c r="AS23" t="n">
         <v>16</v>
@@ -4620,16 +4687,16 @@
         <v>27</v>
       </c>
       <c r="AV23" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AW23" t="n">
         <v>22</v>
       </c>
       <c r="AX23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ23" t="n">
         <v>17</v>
@@ -4638,7 +4705,7 @@
         <v>29</v>
       </c>
       <c r="BB23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC23" t="n">
         <v>26</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-6-2014-15</t>
+          <t>2015-01-06</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-13.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4772,7 +4839,7 @@
         <v>30</v>
       </c>
       <c r="AL24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM24" t="n">
         <v>10</v>
@@ -4784,13 +4851,13 @@
         <v>21</v>
       </c>
       <c r="AP24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS24" t="n">
         <v>25</v>
@@ -4808,13 +4875,13 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY24" t="n">
         <v>25</v>
       </c>
       <c r="AZ24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA24" t="n">
         <v>18</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-6-2014-15</t>
+          <t>2015-01-06</t>
         </is>
       </c>
     </row>
@@ -4852,46 +4919,46 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F25" t="n">
         <v>16</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.556</v>
       </c>
       <c r="H25" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I25" t="n">
-        <v>39.7</v>
+        <v>39.8</v>
       </c>
       <c r="J25" t="n">
-        <v>85.7</v>
+        <v>85.8</v>
       </c>
       <c r="K25" t="n">
-        <v>0.463</v>
+        <v>0.464</v>
       </c>
       <c r="L25" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="M25" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="N25" t="n">
-        <v>0.373</v>
+        <v>0.375</v>
       </c>
       <c r="O25" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="P25" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.8</v>
+        <v>0.801</v>
       </c>
       <c r="R25" t="n">
         <v>10.6</v>
@@ -4900,13 +4967,13 @@
         <v>31.6</v>
       </c>
       <c r="T25" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U25" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V25" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W25" t="n">
         <v>8.4</v>
@@ -4918,22 +4985,22 @@
         <v>3.9</v>
       </c>
       <c r="Z25" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AA25" t="n">
         <v>21.1</v>
       </c>
       <c r="AB25" t="n">
-        <v>107</v>
+        <v>107.2</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF25" t="n">
         <v>12</v>
@@ -4942,7 +5009,7 @@
         <v>12</v>
       </c>
       <c r="AH25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI25" t="n">
         <v>4</v>
@@ -4951,7 +5018,7 @@
         <v>6</v>
       </c>
       <c r="AK25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL25" t="n">
         <v>4</v>
@@ -4960,13 +5027,13 @@
         <v>2</v>
       </c>
       <c r="AN25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ25" t="n">
         <v>1</v>
@@ -4975,22 +5042,22 @@
         <v>18</v>
       </c>
       <c r="AS25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW25" t="n">
         <v>8</v>
       </c>
       <c r="AX25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY25" t="n">
         <v>6</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-6-2014-15</t>
+          <t>2015-01-06</t>
         </is>
       </c>
     </row>
@@ -5154,7 +5221,7 @@
         <v>2</v>
       </c>
       <c r="AR26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS26" t="n">
         <v>1</v>
@@ -5175,7 +5242,7 @@
         <v>8</v>
       </c>
       <c r="AY26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ26" t="n">
         <v>8</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-6-2014-15</t>
+          <t>2015-01-06</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE27" t="n">
         <v>20</v>
@@ -5315,7 +5382,7 @@
         <v>28</v>
       </c>
       <c r="AK27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL27" t="n">
         <v>29</v>
@@ -5324,7 +5391,7 @@
         <v>29</v>
       </c>
       <c r="AN27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-6-2014-15</t>
+          <t>2015-01-06</t>
         </is>
       </c>
     </row>
@@ -5401,13 +5468,13 @@
         <v>35</v>
       </c>
       <c r="E28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G28" t="n">
-        <v>0.571</v>
+        <v>0.6</v>
       </c>
       <c r="H28" t="n">
         <v>49.3</v>
@@ -5416,49 +5483,49 @@
         <v>38.5</v>
       </c>
       <c r="J28" t="n">
-        <v>82.59999999999999</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.466</v>
+        <v>0.468</v>
       </c>
       <c r="L28" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="M28" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="N28" t="n">
-        <v>0.368</v>
+        <v>0.371</v>
       </c>
       <c r="O28" t="n">
-        <v>17.3</v>
+        <v>17</v>
       </c>
       <c r="P28" t="n">
-        <v>22.8</v>
+        <v>22.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.756</v>
+        <v>0.761</v>
       </c>
       <c r="R28" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S28" t="n">
         <v>34.1</v>
       </c>
       <c r="T28" t="n">
-        <v>44</v>
+        <v>43.9</v>
       </c>
       <c r="U28" t="n">
         <v>24.3</v>
       </c>
       <c r="V28" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="W28" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X28" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y28" t="n">
         <v>4.4</v>
@@ -5467,19 +5534,19 @@
         <v>19.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="AB28" t="n">
-        <v>102.2</v>
+        <v>102.1</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AD28" t="n">
         <v>7</v>
       </c>
       <c r="AE28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF28" t="n">
         <v>11</v>
@@ -5494,13 +5561,13 @@
         <v>11</v>
       </c>
       <c r="AJ28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM28" t="n">
         <v>15</v>
@@ -5509,13 +5576,13 @@
         <v>8</v>
       </c>
       <c r="AO28" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP28" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AQ28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR28" t="n">
         <v>25</v>
@@ -5530,13 +5597,13 @@
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW28" t="n">
         <v>18</v>
       </c>
       <c r="AX28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY28" t="n">
         <v>10</v>
@@ -5545,10 +5612,10 @@
         <v>9</v>
       </c>
       <c r="BA28" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="BB28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC28" t="n">
         <v>9</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-6-2014-15</t>
+          <t>2015-01-06</t>
         </is>
       </c>
     </row>
@@ -5658,19 +5725,19 @@
         <v>6.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE29" t="n">
         <v>7</v>
       </c>
       <c r="AF29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG29" t="n">
         <v>7</v>
       </c>
       <c r="AH29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI29" t="n">
         <v>5</v>
@@ -5679,7 +5746,7 @@
         <v>9</v>
       </c>
       <c r="AK29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL29" t="n">
         <v>8</v>
@@ -5700,7 +5767,7 @@
         <v>3</v>
       </c>
       <c r="AR29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS29" t="n">
         <v>27</v>
@@ -5709,13 +5776,13 @@
         <v>22</v>
       </c>
       <c r="AU29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV29" t="n">
         <v>2</v>
       </c>
       <c r="AW29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX29" t="n">
         <v>25</v>
@@ -5724,7 +5791,7 @@
         <v>22</v>
       </c>
       <c r="AZ29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA29" t="n">
         <v>4</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-6-2014-15</t>
+          <t>2015-01-06</t>
         </is>
       </c>
     </row>
@@ -5864,7 +5931,7 @@
         <v>16</v>
       </c>
       <c r="AL30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM30" t="n">
         <v>19</v>
@@ -5882,19 +5949,19 @@
         <v>19</v>
       </c>
       <c r="AR30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS30" t="n">
         <v>24</v>
       </c>
       <c r="AT30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU30" t="n">
         <v>25</v>
       </c>
       <c r="AV30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW30" t="n">
         <v>27</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-6-2014-15</t>
+          <t>2015-01-06</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>2.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE31" t="n">
         <v>8</v>
@@ -6034,13 +6101,13 @@
         <v>8</v>
       </c>
       <c r="AH31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI31" t="n">
         <v>7</v>
       </c>
       <c r="AJ31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK31" t="n">
         <v>4</v>
@@ -6058,7 +6125,7 @@
         <v>24</v>
       </c>
       <c r="AP31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ31" t="n">
         <v>24</v>
@@ -6088,10 +6155,10 @@
         <v>9</v>
       </c>
       <c r="AZ31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB31" t="n">
         <v>18</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-6-2014-15</t>
+          <t>2015-01-06</t>
         </is>
       </c>
     </row>
